--- a/data/trans_orig/P1402-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1402-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D103505C-7D50-4F2D-A09D-E1FA3AAEE532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D0209A1-DD87-4500-B2C9-C4F4D58590A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A49550EB-D99B-4B2F-8322-9F7DD9D481DC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DAFBC871-E498-45A2-824A-1100DC31E086}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="499">
   <si>
     <t>Población con diagnóstico de diabetes en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,7 +95,7 @@
     <t>0,2%</t>
   </si>
   <si>
-    <t>1,08%</t>
+    <t>1,0%</t>
   </si>
   <si>
     <t>0,1%</t>
@@ -110,7 +110,7 @@
     <t>99,8%</t>
   </si>
   <si>
-    <t>98,92%</t>
+    <t>99,0%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -143,7 +143,7 @@
     <t>0,24%</t>
   </si>
   <si>
-    <t>1,21%</t>
+    <t>1,22%</t>
   </si>
   <si>
     <t>0,48%</t>
@@ -152,1354 +152,1390 @@
     <t>0,14%</t>
   </si>
   <si>
-    <t>1,46%</t>
+    <t>1,34%</t>
   </si>
   <si>
     <t>0,35%</t>
   </si>
   <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de diabetes en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de diabetes en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de diabetes en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de diabetes en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de diabetes en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de diabetes en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
+    <t>4,04%</t>
   </si>
   <si>
     <t>0,04%</t>
   </si>
   <si>
-    <t>1,8%</t>
+    <t>2,12%</t>
   </si>
   <si>
     <t>9,39%</t>
   </si>
   <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
     <t>8,4%</t>
   </si>
   <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
     <t>9,01%</t>
   </si>
   <si>
     <t>90,61%</t>
   </si>
   <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
   </si>
   <si>
     <t>91,65%</t>
   </si>
   <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
   </si>
   <si>
     <t>91,17%</t>
   </si>
   <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
   </si>
 </sst>
 </file>
@@ -1911,7 +1947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE01653A-E4B7-4034-8766-24296A19A013}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9675C01E-FD8D-4128-BDC9-5486BC702974}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2722,10 +2758,10 @@
         <v>75</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M17" s="7">
         <v>44</v>
@@ -2734,13 +2770,13 @@
         <v>43840</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2755,13 +2791,13 @@
         <v>496301</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H18" s="7">
         <v>480</v>
@@ -2770,13 +2806,13 @@
         <v>494648</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="L18" s="7" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="M18" s="7">
         <v>942</v>
@@ -2785,13 +2821,13 @@
         <v>990949</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2847,7 +2883,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2865,7 +2901,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2910,13 +2946,13 @@
         <v>44335</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H21" s="7">
         <v>48</v>
@@ -2925,13 +2961,13 @@
         <v>49657</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M21" s="7">
         <v>95</v>
@@ -2940,13 +2976,13 @@
         <v>93992</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2961,13 +2997,13 @@
         <v>342375</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H22" s="7">
         <v>348</v>
@@ -2976,13 +3012,13 @@
         <v>354329</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M22" s="7">
         <v>693</v>
@@ -2991,13 +3027,13 @@
         <v>696704</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3053,7 +3089,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3071,7 +3107,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3101,7 +3137,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,13 +3152,13 @@
         <v>99465</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H25" s="7">
         <v>144</v>
@@ -3131,13 +3167,13 @@
         <v>148398</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M25" s="7">
         <v>250</v>
@@ -3146,13 +3182,13 @@
         <v>247863</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3167,13 +3203,13 @@
         <v>403001</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H26" s="7">
         <v>517</v>
@@ -3182,13 +3218,13 @@
         <v>528444</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M26" s="7">
         <v>934</v>
@@ -3197,13 +3233,13 @@
         <v>931445</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,7 +3313,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3292,7 +3328,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3307,7 +3343,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,13 +3358,13 @@
         <v>185467</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H29" s="7">
         <v>224</v>
@@ -3337,13 +3373,13 @@
         <v>229249</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M29" s="7">
         <v>416</v>
@@ -3352,13 +3388,13 @@
         <v>414716</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,13 +3409,13 @@
         <v>3091077</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H30" s="7">
         <v>3073</v>
@@ -3388,28 +3424,28 @@
         <v>3149949</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M30" s="7">
         <v>6095</v>
       </c>
       <c r="N30" s="7">
-        <v>6241024</v>
+        <v>6241025</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,7 +3487,7 @@
         <v>6511</v>
       </c>
       <c r="N31" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>26</v>
@@ -3465,7 +3501,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3487,7 +3523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2376AF7-28BE-439B-8925-DCD3935D1A3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E822BF6-A35D-4E5F-8150-E017AD615984}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3504,7 +3540,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3617,7 +3653,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3632,7 +3668,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3647,7 +3683,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3668,7 +3704,7 @@
         <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -3677,13 +3713,13 @@
         <v>2044</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -3692,13 +3728,13 @@
         <v>4820</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,7 +3752,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>22</v>
@@ -3728,10 +3764,10 @@
         <v>428186</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>24</v>
@@ -3743,13 +3779,13 @@
         <v>879556</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3871,7 +3907,7 @@
         <v>167</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>168</v>
@@ -3925,7 +3961,7 @@
         <v>176</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>563</v>
@@ -3934,13 +3970,13 @@
         <v>601496</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M10" s="7">
         <v>1223</v>
@@ -3949,13 +3985,13 @@
         <v>1280813</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,13 +4110,13 @@
         <v>3904</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -4092,10 +4128,10 @@
         <v>185</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -4104,7 +4140,7 @@
         <v>16975</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>186</v>
+        <v>34</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>187</v>
@@ -4128,10 +4164,10 @@
         <v>189</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H14" s="7">
         <v>653</v>
@@ -4140,13 +4176,13 @@
         <v>696503</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>193</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="M14" s="7">
         <v>1300</v>
@@ -4155,13 +4191,13 @@
         <v>1374462</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4250,7 +4286,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4265,7 +4301,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4280,13 +4316,13 @@
         <v>26724</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -4295,13 +4331,13 @@
         <v>21477</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M17" s="7">
         <v>44</v>
@@ -4310,13 +4346,13 @@
         <v>48201</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4331,13 +4367,13 @@
         <v>587893</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H18" s="7">
         <v>519</v>
@@ -4346,13 +4382,13 @@
         <v>592787</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M18" s="7">
         <v>1042</v>
@@ -4361,13 +4397,13 @@
         <v>1180679</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4423,7 +4459,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4441,7 +4477,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4456,7 +4492,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4486,13 +4522,13 @@
         <v>50741</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H21" s="7">
         <v>48</v>
@@ -4501,13 +4537,13 @@
         <v>51170</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M21" s="7">
         <v>96</v>
@@ -4516,13 +4552,13 @@
         <v>101910</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4537,13 +4573,13 @@
         <v>378688</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H22" s="7">
         <v>358</v>
@@ -4552,13 +4588,13 @@
         <v>396630</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M22" s="7">
         <v>703</v>
@@ -4567,13 +4603,13 @@
         <v>775319</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,7 +4665,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4662,7 +4698,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4677,7 +4713,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4692,13 +4728,13 @@
         <v>165211</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H25" s="7">
         <v>200</v>
@@ -4707,13 +4743,13 @@
         <v>210683</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M25" s="7">
         <v>349</v>
@@ -4722,13 +4758,13 @@
         <v>375894</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4743,13 +4779,13 @@
         <v>394426</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H26" s="7">
         <v>494</v>
@@ -4758,13 +4794,13 @@
         <v>532292</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M26" s="7">
         <v>849</v>
@@ -4773,13 +4809,13 @@
         <v>926718</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4853,7 +4889,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4868,7 +4904,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4883,7 +4919,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,13 +4934,13 @@
         <v>257126</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H29" s="7">
         <v>290</v>
@@ -4913,13 +4949,13 @@
         <v>307203</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M29" s="7">
         <v>526</v>
@@ -4928,13 +4964,13 @@
         <v>564329</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,13 +4985,13 @@
         <v>3169653</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H30" s="7">
         <v>3006</v>
@@ -4964,28 +5000,28 @@
         <v>3247895</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M30" s="7">
         <v>5979</v>
       </c>
       <c r="N30" s="7">
-        <v>6417548</v>
+        <v>6417549</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5027,7 +5063,7 @@
         <v>6505</v>
       </c>
       <c r="N31" s="7">
-        <v>6981877</v>
+        <v>6981878</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>26</v>
@@ -5041,7 +5077,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -5063,7 +5099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C02520-0F40-4853-A142-56473EB7BC33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E05EF20-7A59-4B3F-928D-26D64DD957DA}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5080,7 +5116,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5193,7 +5229,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5208,7 +5244,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5238,13 +5274,13 @@
         <v>932</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5259,7 +5295,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -5268,13 +5304,13 @@
         <v>932</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5289,10 +5325,10 @@
         <v>418531</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>24</v>
@@ -5307,7 +5343,7 @@
         <v>24</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>26</v>
@@ -5319,10 +5355,10 @@
         <v>814286</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>189</v>
+        <v>278</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>24</v>
@@ -5414,7 +5450,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5429,7 +5465,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5450,7 +5486,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>169</v>
+        <v>281</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
@@ -5459,13 +5495,13 @@
         <v>4663</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>31</v>
+        <v>279</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="M9" s="7">
         <v>7</v>
@@ -5477,10 +5513,10 @@
         <v>20</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5498,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>178</v>
+        <v>285</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>24</v>
@@ -5510,13 +5546,13 @@
         <v>558881</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="M10" s="7">
         <v>1139</v>
@@ -5528,10 +5564,10 @@
         <v>28</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5605,7 +5641,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5650,13 +5686,13 @@
         <v>12858</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>40</v>
+        <v>293</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -5665,13 +5701,13 @@
         <v>7535</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>35</v>
+        <v>151</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>296</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -5680,13 +5716,13 @@
         <v>20394</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5701,13 +5737,13 @@
         <v>656239</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>47</v>
+        <v>302</v>
       </c>
       <c r="H14" s="7">
         <v>657</v>
@@ -5716,13 +5752,13 @@
         <v>653851</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>304</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>43</v>
+        <v>305</v>
       </c>
       <c r="M14" s="7">
         <v>1283</v>
@@ -5731,13 +5767,13 @@
         <v>1310089</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5811,7 +5847,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5841,7 +5877,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5856,13 +5892,13 @@
         <v>35576</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>138</v>
+        <v>311</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -5871,13 +5907,13 @@
         <v>22758</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="M17" s="7">
         <v>53</v>
@@ -5886,13 +5922,13 @@
         <v>58334</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5907,13 +5943,13 @@
         <v>610472</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>146</v>
+        <v>319</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="H18" s="7">
         <v>581</v>
@@ -5922,28 +5958,28 @@
         <v>626319</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="M18" s="7">
         <v>1131</v>
       </c>
       <c r="N18" s="7">
-        <v>1236791</v>
+        <v>1236792</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5985,7 +6021,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>26</v>
@@ -5999,7 +6035,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6017,7 +6053,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6047,7 +6083,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6062,13 +6098,13 @@
         <v>63481</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="H21" s="7">
         <v>56</v>
@@ -6077,13 +6113,13 @@
         <v>62051</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="M21" s="7">
         <v>113</v>
@@ -6092,13 +6128,13 @@
         <v>125532</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6113,13 +6149,13 @@
         <v>414437</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="H22" s="7">
         <v>377</v>
@@ -6128,13 +6164,13 @@
         <v>434798</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="M22" s="7">
         <v>744</v>
@@ -6143,13 +6179,13 @@
         <v>849235</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6205,7 +6241,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6268,13 +6304,13 @@
         <v>182537</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="H25" s="7">
         <v>167</v>
@@ -6283,13 +6319,13 @@
         <v>200172</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="M25" s="7">
         <v>361</v>
@@ -6298,13 +6334,13 @@
         <v>382709</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6319,13 +6355,13 @@
         <v>408791</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="H26" s="7">
         <v>488</v>
@@ -6334,13 +6370,13 @@
         <v>577759</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="M26" s="7">
         <v>921</v>
@@ -6349,13 +6385,13 @@
         <v>986550</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6429,7 +6465,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6444,7 +6480,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6459,7 +6495,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6474,13 +6510,13 @@
         <v>297716</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="H29" s="7">
         <v>257</v>
@@ -6489,13 +6525,13 @@
         <v>297179</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="M29" s="7">
         <v>555</v>
@@ -6504,13 +6540,13 @@
         <v>594895</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>357</v>
+        <v>255</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6525,13 +6561,13 @@
         <v>3096634</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="H30" s="7">
         <v>3081</v>
@@ -6540,13 +6576,13 @@
         <v>3247363</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="M30" s="7">
         <v>6014</v>
@@ -6555,13 +6591,13 @@
         <v>6343997</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>366</v>
+        <v>263</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6617,7 +6653,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -6639,7 +6675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C30D3D-7F5B-4B80-B758-9B3491FA471B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C51974-B348-4838-AE30-9748D67F7FC1}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6656,7 +6692,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6769,7 +6805,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6784,7 +6820,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6799,7 +6835,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6820,7 +6856,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -6835,7 +6871,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -6850,7 +6886,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6868,7 +6904,7 @@
         <v>24</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>26</v>
@@ -6880,10 +6916,10 @@
         <v>353869</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>24</v>
@@ -6895,10 +6931,10 @@
         <v>728107</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>24</v>
@@ -6975,7 +7011,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -6984,13 +7020,13 @@
         <v>637</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>170</v>
+        <v>387</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -6999,13 +7035,13 @@
         <v>637</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>379</v>
+        <v>39</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7020,13 +7056,13 @@
         <v>5351</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -7035,13 +7071,13 @@
         <v>889</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>382</v>
+        <v>40</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -7050,13 +7086,13 @@
         <v>6240</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7071,13 +7107,13 @@
         <v>423045</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="H10" s="7">
         <v>459</v>
@@ -7086,10 +7122,10 @@
         <v>497688</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>24</v>
@@ -7101,13 +7137,13 @@
         <v>920733</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>389</v>
+        <v>182</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>391</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7190,13 +7226,13 @@
         <v>27690</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>273</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -7205,13 +7241,13 @@
         <v>27690</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7226,13 +7262,13 @@
         <v>10331</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>278</v>
+        <v>403</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -7241,13 +7277,13 @@
         <v>7158</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -7256,13 +7292,13 @@
         <v>17489</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>402</v>
+        <v>40</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7277,13 +7313,13 @@
         <v>546921</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>281</v>
+        <v>412</v>
       </c>
       <c r="H14" s="7">
         <v>830</v>
@@ -7292,13 +7328,13 @@
         <v>575600</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="M14" s="7">
         <v>1363</v>
@@ -7307,13 +7343,13 @@
         <v>1122520</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>409</v>
+        <v>320</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>227</v>
+        <v>415</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7396,13 +7432,13 @@
         <v>407</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>233</v>
+        <v>30</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -7411,13 +7447,13 @@
         <v>407</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>277</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7432,13 +7468,13 @@
         <v>45382</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="H17" s="7">
         <v>38</v>
@@ -7447,13 +7483,13 @@
         <v>23481</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="M17" s="7">
         <v>84</v>
@@ -7462,13 +7498,13 @@
         <v>68864</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7483,13 +7519,13 @@
         <v>678608</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="H18" s="7">
         <v>1102</v>
@@ -7498,28 +7534,28 @@
         <v>723372</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="M18" s="7">
         <v>1721</v>
       </c>
       <c r="N18" s="7">
-        <v>1401981</v>
+        <v>1401980</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7561,7 +7597,7 @@
         <v>1806</v>
       </c>
       <c r="N19" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>26</v>
@@ -7575,7 +7611,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7602,13 +7638,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7617,13 +7653,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>172</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7638,13 +7674,13 @@
         <v>76153</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="H21" s="7">
         <v>82</v>
@@ -7653,13 +7689,13 @@
         <v>46251</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>99</v>
+        <v>446</v>
       </c>
       <c r="M21" s="7">
         <v>172</v>
@@ -7668,13 +7704,13 @@
         <v>122404</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7689,13 +7725,13 @@
         <v>522933</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="H22" s="7">
         <v>918</v>
@@ -7704,13 +7740,13 @@
         <v>547325</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="M22" s="7">
         <v>1490</v>
@@ -7719,13 +7755,13 @@
         <v>1070258</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>226</v>
+        <v>458</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7781,7 +7817,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7814,7 +7850,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7829,7 +7865,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>379</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7844,13 +7880,13 @@
         <v>179838</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="H25" s="7">
         <v>406</v>
@@ -7859,13 +7895,13 @@
         <v>209592</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="M25" s="7">
         <v>679</v>
@@ -7874,13 +7910,13 @@
         <v>389430</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7895,13 +7931,13 @@
         <v>514805</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="H26" s="7">
         <v>1299</v>
@@ -7910,13 +7946,13 @@
         <v>815254</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="M26" s="7">
         <v>2050</v>
@@ -7925,13 +7961,13 @@
         <v>1330059</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8005,7 +8041,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -8014,13 +8050,13 @@
         <v>31497</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -8032,10 +8068,10 @@
         <v>56</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8050,13 +8086,13 @@
         <v>317056</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="H29" s="7">
         <v>543</v>
@@ -8065,13 +8101,13 @@
         <v>288458</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="M29" s="7">
         <v>968</v>
@@ -8080,13 +8116,13 @@
         <v>605514</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8101,13 +8137,13 @@
         <v>3060550</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="H30" s="7">
         <v>4814</v>
@@ -8116,13 +8152,13 @@
         <v>3513109</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="M30" s="7">
         <v>7759</v>
@@ -8131,13 +8167,13 @@
         <v>6573659</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8193,7 +8229,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1402-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1402-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D0209A1-DD87-4500-B2C9-C4F4D58590A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAE1D20B-D153-4AE3-8076-3E223652FFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DAFBC871-E498-45A2-824A-1100DC31E086}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{54516D18-9FDA-40A7-970D-6F9948F813D9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="478">
   <si>
     <t>Población con diagnóstico de diabetes en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,1197 +95,1164 @@
     <t>0,2%</t>
   </si>
   <si>
-    <t>1,0%</t>
+    <t>1,38%</t>
   </si>
   <si>
     <t>0,1%</t>
   </si>
   <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de diabetes en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
   </si>
   <si>
     <t>99,39%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
   </si>
   <si>
     <t>1,22%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de diabetes en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de diabetes en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
   </si>
   <si>
     <t>0,07%</t>
   </si>
   <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de diabetes en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de diabetes en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
   </si>
   <si>
     <t>96,13%</t>
   </si>
   <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de diabetes en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
     <t>86,81%</t>
   </si>
   <si>
@@ -1298,9 +1265,6 @@
     <t>0,12%</t>
   </si>
   <si>
-    <t>6,27%</t>
-  </si>
-  <si>
     <t>4,55%</t>
   </si>
   <si>
@@ -1325,9 +1289,6 @@
     <t>5,78%</t>
   </si>
   <si>
-    <t>93,73%</t>
-  </si>
-  <si>
     <t>91,29%</t>
   </si>
   <si>
@@ -1352,9 +1313,6 @@
     <t>96,34%</t>
   </si>
   <si>
-    <t>0,46%</t>
-  </si>
-  <si>
     <t>2,3%</t>
   </si>
   <si>
@@ -1406,9 +1364,6 @@
     <t>89,76%</t>
   </si>
   <si>
-    <t>93,48%</t>
-  </si>
-  <si>
     <t>89,53%</t>
   </si>
   <si>
@@ -1436,9 +1391,6 @@
     <t>23,76%</t>
   </si>
   <si>
-    <t>22,65%</t>
-  </si>
-  <si>
     <t>18,19%</t>
   </si>
   <si>
@@ -1463,9 +1415,6 @@
     <t>85,75%</t>
   </si>
   <si>
-    <t>77,35%</t>
-  </si>
-  <si>
     <t>75,11%</t>
   </si>
   <si>
@@ -1487,12 +1436,6 @@
     <t>2,12%</t>
   </si>
   <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
     <t>10,32%</t>
   </si>
   <si>
@@ -1511,13 +1454,7 @@
     <t>9,01%</t>
   </si>
   <si>
-    <t>90,61%</t>
-  </si>
-  <si>
     <t>89,68%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
   </si>
   <si>
     <t>91,65%</t>
@@ -1947,7 +1884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9675C01E-FD8D-4128-BDC9-5486BC702974}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4333B349-A9E3-4B25-9927-68A32D75FD6D}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2758,10 +2695,10 @@
         <v>75</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M17" s="7">
         <v>44</v>
@@ -2770,13 +2707,13 @@
         <v>43840</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,13 +2728,13 @@
         <v>496301</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H18" s="7">
         <v>480</v>
@@ -2806,13 +2743,13 @@
         <v>494648</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="M18" s="7">
         <v>942</v>
@@ -2821,13 +2758,13 @@
         <v>990949</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2883,7 +2820,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2901,7 +2838,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2946,13 +2883,13 @@
         <v>44335</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H21" s="7">
         <v>48</v>
@@ -2961,13 +2898,13 @@
         <v>49657</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M21" s="7">
         <v>95</v>
@@ -2976,13 +2913,13 @@
         <v>93992</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2997,13 +2934,13 @@
         <v>342375</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H22" s="7">
         <v>348</v>
@@ -3012,13 +2949,13 @@
         <v>354329</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M22" s="7">
         <v>693</v>
@@ -3027,13 +2964,13 @@
         <v>696704</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3089,7 +3026,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3107,7 +3044,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3137,7 +3074,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,13 +3089,13 @@
         <v>99465</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H25" s="7">
         <v>144</v>
@@ -3167,13 +3104,13 @@
         <v>148398</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M25" s="7">
         <v>250</v>
@@ -3182,13 +3119,13 @@
         <v>247863</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,13 +3140,13 @@
         <v>403001</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H26" s="7">
         <v>517</v>
@@ -3218,13 +3155,13 @@
         <v>528444</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M26" s="7">
         <v>934</v>
@@ -3233,13 +3170,13 @@
         <v>931445</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3313,7 +3250,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3328,7 +3265,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3343,7 +3280,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,13 +3295,13 @@
         <v>185467</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H29" s="7">
         <v>224</v>
@@ -3373,13 +3310,13 @@
         <v>229249</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M29" s="7">
         <v>416</v>
@@ -3388,13 +3325,13 @@
         <v>414716</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3406,16 +3343,16 @@
         <v>3022</v>
       </c>
       <c r="D30" s="7">
-        <v>3091077</v>
+        <v>3091076</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H30" s="7">
         <v>3073</v>
@@ -3424,13 +3361,13 @@
         <v>3149949</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M30" s="7">
         <v>6095</v>
@@ -3439,13 +3376,13 @@
         <v>6241025</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3457,7 +3394,7 @@
         <v>3214</v>
       </c>
       <c r="D31" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>26</v>
@@ -3501,7 +3438,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3523,7 +3460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E822BF6-A35D-4E5F-8150-E017AD615984}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6AD37F-EA0C-41A6-B00A-904D61C169CC}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3540,7 +3477,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3653,7 +3590,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3668,7 +3605,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3683,7 +3620,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3698,13 +3635,13 @@
         <v>2777</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -3713,13 +3650,13 @@
         <v>2044</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -3728,13 +3665,13 @@
         <v>4820</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3749,10 +3686,10 @@
         <v>451369</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>22</v>
@@ -3764,10 +3701,10 @@
         <v>428186</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>24</v>
@@ -3779,13 +3716,13 @@
         <v>879556</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>164</v>
+        <v>42</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>165</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,7 +3811,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3904,10 +3841,10 @@
         <v>7770</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>168</v>
@@ -3961,7 +3898,7 @@
         <v>176</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="H10" s="7">
         <v>563</v>
@@ -3970,13 +3907,13 @@
         <v>601496</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M10" s="7">
         <v>1223</v>
@@ -3985,13 +3922,13 @@
         <v>1280813</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,13 +4047,13 @@
         <v>3904</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -4125,13 +4062,13 @@
         <v>13071</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>18</v>
+        <v>186</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -4140,13 +4077,13 @@
         <v>16975</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>34</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,13 +4098,13 @@
         <v>677959</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>191</v>
+        <v>45</v>
       </c>
       <c r="H14" s="7">
         <v>653</v>
@@ -4176,13 +4113,13 @@
         <v>696503</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="M14" s="7">
         <v>1300</v>
@@ -4191,7 +4128,7 @@
         <v>1374462</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>194</v>
@@ -4334,10 +4271,10 @@
         <v>201</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M17" s="7">
         <v>44</v>
@@ -4346,13 +4283,13 @@
         <v>48201</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4367,13 +4304,13 @@
         <v>587893</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H18" s="7">
         <v>519</v>
@@ -4382,13 +4319,13 @@
         <v>592787</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>211</v>
-      </c>
       <c r="L18" s="7" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="M18" s="7">
         <v>1042</v>
@@ -4397,13 +4334,13 @@
         <v>1180679</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4459,7 +4396,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4477,7 +4414,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4492,7 +4429,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4522,13 +4459,13 @@
         <v>50741</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H21" s="7">
         <v>48</v>
@@ -4537,13 +4474,13 @@
         <v>51170</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>220</v>
+        <v>92</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M21" s="7">
         <v>96</v>
@@ -4552,13 +4489,13 @@
         <v>101910</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4573,13 +4510,13 @@
         <v>378688</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H22" s="7">
         <v>358</v>
@@ -4588,13 +4525,13 @@
         <v>396630</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>230</v>
+        <v>102</v>
       </c>
       <c r="M22" s="7">
         <v>703</v>
@@ -4603,13 +4540,13 @@
         <v>775319</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4665,7 +4602,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4698,7 +4635,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4713,7 +4650,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4728,13 +4665,13 @@
         <v>165211</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H25" s="7">
         <v>200</v>
@@ -4743,13 +4680,13 @@
         <v>210683</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M25" s="7">
         <v>349</v>
@@ -4758,13 +4695,13 @@
         <v>375894</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4779,13 +4716,13 @@
         <v>394426</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H26" s="7">
         <v>494</v>
@@ -4794,13 +4731,13 @@
         <v>532292</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M26" s="7">
         <v>849</v>
@@ -4809,13 +4746,13 @@
         <v>926718</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4889,7 +4826,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4904,7 +4841,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4919,7 +4856,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,13 +4871,13 @@
         <v>257126</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H29" s="7">
         <v>290</v>
@@ -4949,13 +4886,13 @@
         <v>307203</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M29" s="7">
         <v>526</v>
@@ -4964,13 +4901,13 @@
         <v>564329</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4985,13 +4922,13 @@
         <v>3169653</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H30" s="7">
         <v>3006</v>
@@ -5000,28 +4937,28 @@
         <v>3247895</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="M30" s="7">
         <v>5979</v>
       </c>
       <c r="N30" s="7">
-        <v>6417549</v>
+        <v>6417548</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5063,7 +5000,7 @@
         <v>6505</v>
       </c>
       <c r="N31" s="7">
-        <v>6981878</v>
+        <v>6981877</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>26</v>
@@ -5077,7 +5014,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -5099,7 +5036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E05EF20-7A59-4B3F-928D-26D64DD957DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61038707-C640-458C-A3C1-23882230BB2C}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5116,7 +5053,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5229,7 +5166,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5244,7 +5181,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5274,13 +5211,13 @@
         <v>932</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>272</v>
+        <v>172</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5295,7 +5232,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -5304,13 +5241,13 @@
         <v>932</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,10 +5262,10 @@
         <v>418531</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>276</v>
+        <v>181</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>24</v>
@@ -5343,7 +5280,7 @@
         <v>24</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>26</v>
@@ -5355,10 +5292,10 @@
         <v>814286</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>24</v>
@@ -5435,7 +5372,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5450,7 +5387,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5465,7 +5402,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5486,7 +5423,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>281</v>
+        <v>18</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
@@ -5495,13 +5432,13 @@
         <v>4663</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>279</v>
+        <v>31</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="M9" s="7">
         <v>7</v>
@@ -5510,13 +5447,13 @@
         <v>6995</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>20</v>
+        <v>155</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>234</v>
+        <v>33</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5534,7 +5471,7 @@
         <v>25</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>285</v>
+        <v>23</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>24</v>
@@ -5546,13 +5483,13 @@
         <v>558881</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="M10" s="7">
         <v>1139</v>
@@ -5561,13 +5498,13 @@
         <v>1147045</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5641,7 +5578,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5686,13 +5623,13 @@
         <v>12858</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>293</v>
+        <v>55</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -5701,13 +5638,13 @@
         <v>7535</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -5716,13 +5653,13 @@
         <v>20394</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5737,13 +5674,13 @@
         <v>656239</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>302</v>
+        <v>64</v>
       </c>
       <c r="H14" s="7">
         <v>657</v>
@@ -5752,13 +5689,13 @@
         <v>653851</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
         <v>1283</v>
@@ -5767,13 +5704,13 @@
         <v>1310089</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5847,7 +5784,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5877,7 +5814,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5892,13 +5829,13 @@
         <v>35576</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -5907,13 +5844,13 @@
         <v>22758</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="M17" s="7">
         <v>53</v>
@@ -5922,13 +5859,13 @@
         <v>58334</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5943,13 +5880,13 @@
         <v>610472</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="H18" s="7">
         <v>581</v>
@@ -5958,28 +5895,28 @@
         <v>626319</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="M18" s="7">
         <v>1131</v>
       </c>
       <c r="N18" s="7">
-        <v>1236792</v>
+        <v>1236791</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6021,7 +5958,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>26</v>
@@ -6035,7 +5972,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6053,7 +5990,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6068,7 +6005,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>56</v>
+        <v>316</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6083,7 +6020,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6098,13 +6035,13 @@
         <v>63481</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="H21" s="7">
         <v>56</v>
@@ -6113,13 +6050,13 @@
         <v>62051</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="M21" s="7">
         <v>113</v>
@@ -6128,13 +6065,13 @@
         <v>125532</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6149,13 +6086,13 @@
         <v>414437</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="H22" s="7">
         <v>377</v>
@@ -6164,13 +6101,13 @@
         <v>434798</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="M22" s="7">
         <v>744</v>
@@ -6179,13 +6116,13 @@
         <v>849235</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,7 +6178,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6304,13 +6241,13 @@
         <v>182537</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="H25" s="7">
         <v>167</v>
@@ -6319,13 +6256,13 @@
         <v>200172</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="M25" s="7">
         <v>361</v>
@@ -6334,13 +6271,13 @@
         <v>382709</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6355,13 +6292,13 @@
         <v>408791</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="H26" s="7">
         <v>488</v>
@@ -6370,13 +6307,13 @@
         <v>577759</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="M26" s="7">
         <v>921</v>
@@ -6385,13 +6322,13 @@
         <v>986550</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6465,7 +6402,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6480,7 +6417,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6495,7 +6432,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6510,13 +6447,13 @@
         <v>297716</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="H29" s="7">
         <v>257</v>
@@ -6525,13 +6462,13 @@
         <v>297179</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>367</v>
+        <v>256</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="M29" s="7">
         <v>555</v>
@@ -6540,13 +6477,13 @@
         <v>594895</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>255</v>
+        <v>358</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6561,13 +6498,13 @@
         <v>3096634</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="H30" s="7">
         <v>3081</v>
@@ -6576,13 +6513,13 @@
         <v>3247363</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>376</v>
+        <v>266</v>
       </c>
       <c r="M30" s="7">
         <v>6014</v>
@@ -6591,13 +6528,13 @@
         <v>6343997</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>263</v>
+        <v>366</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6653,7 +6590,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -6675,7 +6612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C51974-B348-4838-AE30-9748D67F7FC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE81FF08-93F9-4E49-85EA-DC15BB485BBF}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6692,7 +6629,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6805,7 +6742,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>272</v>
+        <v>370</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6820,7 +6757,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>380</v>
+        <v>288</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6835,7 +6772,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6856,7 +6793,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>272</v>
+        <v>370</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -6871,7 +6808,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>382</v>
+        <v>37</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -6886,7 +6823,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6904,7 +6841,7 @@
         <v>24</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>276</v>
+        <v>373</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>26</v>
@@ -6916,10 +6853,10 @@
         <v>353869</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>385</v>
+        <v>44</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>24</v>
@@ -6931,10 +6868,10 @@
         <v>728107</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>191</v>
+        <v>375</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>24</v>
@@ -7011,7 +6948,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -7020,13 +6957,13 @@
         <v>637</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>388</v>
+        <v>39</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -7035,13 +6972,13 @@
         <v>637</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>39</v>
+        <v>378</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7056,13 +6993,13 @@
         <v>5351</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -7077,7 +7014,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>40</v>
+        <v>381</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -7086,13 +7023,13 @@
         <v>6240</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>392</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7107,13 +7044,13 @@
         <v>423045</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="H10" s="7">
         <v>459</v>
@@ -7122,10 +7059,10 @@
         <v>497688</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>24</v>
@@ -7137,10 +7074,10 @@
         <v>920733</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>41</v>
@@ -7226,13 +7163,13 @@
         <v>27690</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -7241,13 +7178,13 @@
         <v>27690</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7262,13 +7199,13 @@
         <v>10331</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>403</v>
+        <v>40</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -7277,13 +7214,13 @@
         <v>7158</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -7292,13 +7229,13 @@
         <v>17489</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>40</v>
+        <v>381</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7313,13 +7250,13 @@
         <v>546921</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>412</v>
+        <v>47</v>
       </c>
       <c r="H14" s="7">
         <v>830</v>
@@ -7328,13 +7265,13 @@
         <v>575600</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="M14" s="7">
         <v>1363</v>
@@ -7343,13 +7280,13 @@
         <v>1122520</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>320</v>
+        <v>403</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7432,7 +7369,7 @@
         <v>407</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
@@ -7447,13 +7384,13 @@
         <v>407</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7468,13 +7405,13 @@
         <v>45382</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>419</v>
+        <v>200</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="H17" s="7">
         <v>38</v>
@@ -7483,13 +7420,13 @@
         <v>23481</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="M17" s="7">
         <v>84</v>
@@ -7498,13 +7435,13 @@
         <v>68864</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7519,13 +7456,13 @@
         <v>678608</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>428</v>
+        <v>207</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="H18" s="7">
         <v>1102</v>
@@ -7534,13 +7471,13 @@
         <v>723372</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="M18" s="7">
         <v>1721</v>
@@ -7549,13 +7486,13 @@
         <v>1401980</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7611,7 +7548,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7638,13 +7575,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>437</v>
+        <v>56</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7653,13 +7590,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7674,13 +7611,13 @@
         <v>76153</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="H21" s="7">
         <v>82</v>
@@ -7689,13 +7626,13 @@
         <v>46251</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="M21" s="7">
         <v>172</v>
@@ -7704,13 +7641,13 @@
         <v>122404</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7725,13 +7662,13 @@
         <v>522933</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="H22" s="7">
         <v>918</v>
@@ -7740,13 +7677,13 @@
         <v>547325</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>455</v>
+        <v>82</v>
       </c>
       <c r="M22" s="7">
         <v>1490</v>
@@ -7755,13 +7692,13 @@
         <v>1070258</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7817,7 +7754,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7850,7 +7787,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7865,7 +7802,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>39</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7880,13 +7817,13 @@
         <v>179838</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="H25" s="7">
         <v>406</v>
@@ -7895,13 +7832,13 @@
         <v>209592</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="M25" s="7">
         <v>679</v>
@@ -7910,13 +7847,13 @@
         <v>389430</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>465</v>
+        <v>339</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7931,13 +7868,13 @@
         <v>514805</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="H26" s="7">
         <v>1299</v>
@@ -7946,13 +7883,13 @@
         <v>815254</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="M26" s="7">
         <v>2050</v>
@@ -7961,13 +7898,13 @@
         <v>1330059</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>474</v>
+        <v>349</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8041,7 +7978,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -8050,13 +7987,13 @@
         <v>31497</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -8065,13 +8002,13 @@
         <v>31497</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>56</v>
+        <v>316</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8086,13 +8023,13 @@
         <v>317056</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>482</v>
+        <v>95</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>483</v>
+        <v>251</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="H29" s="7">
         <v>543</v>
@@ -8101,13 +8038,13 @@
         <v>288458</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="M29" s="7">
         <v>968</v>
@@ -8116,13 +8053,13 @@
         <v>605514</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8137,13 +8074,13 @@
         <v>3060550</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>490</v>
+        <v>105</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>492</v>
+        <v>259</v>
       </c>
       <c r="H30" s="7">
         <v>4814</v>
@@ -8152,13 +8089,13 @@
         <v>3513109</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>493</v>
+        <v>472</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>494</v>
+        <v>473</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>495</v>
+        <v>474</v>
       </c>
       <c r="M30" s="7">
         <v>7759</v>
@@ -8167,13 +8104,13 @@
         <v>6573659</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>497</v>
+        <v>476</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8229,7 +8166,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1402-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1402-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{647D858A-BDCD-4621-9690-52A725789A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C655318D-6168-414D-9EB5-913F5D7A65E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1FEECB0F-BDD8-4D16-8E5D-C96D762A04A6}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D66989F4-D7EA-47EF-A761-F3CDC9D55BE4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="510">
   <si>
     <t>Población con diagnóstico de diabetes en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -119,7 +119,7 @@
     <t>99,39%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,24%</t>
@@ -170,7 +170,7 @@
     <t>99,92%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>2,51%</t>
@@ -227,7 +227,7 @@
     <t>98,89%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>4,4%</t>
@@ -284,7 +284,7 @@
     <t>96,94%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>11,46%</t>
@@ -341,61 +341,118 @@
     <t>90,34%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
   </si>
   <si>
     <t>21,02%</t>
   </si>
   <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
   </si>
   <si>
     <t>78,98%</t>
   </si>
   <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
   </si>
   <si>
     <t>5,66%</t>
@@ -686,58 +743,112 @@
     <t>90,49%</t>
   </si>
   <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
   </si>
   <si>
     <t>7,5%</t>
@@ -983,58 +1094,112 @@
     <t>89,37%</t>
   </si>
   <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
   </si>
   <si>
     <t>8,77%</t>
@@ -1094,298 +1259,316 @@
     <t>Población con diagnóstico de diabetes en 2023 (Tasa respuesta: 99,82%)</t>
   </si>
   <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
   </si>
   <si>
     <t>0,98%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
   </si>
   <si>
     <t>99,02%</t>
   </si>
   <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
   </si>
 </sst>
 </file>
@@ -1797,8 +1980,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C670201-0C86-4961-BF57-376EB0DED8A0}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0840B515-3572-4D15-B217-23B17745CBA0}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2690,10 +2873,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="D19" s="7">
-        <v>99465</v>
+        <v>57154</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>101</v>
@@ -2705,10 +2888,10 @@
         <v>103</v>
       </c>
       <c r="H19" s="7">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="I19" s="7">
-        <v>148398</v>
+        <v>76437</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>104</v>
@@ -2720,10 +2903,10 @@
         <v>106</v>
       </c>
       <c r="M19" s="7">
-        <v>250</v>
+        <v>144</v>
       </c>
       <c r="N19" s="7">
-        <v>247863</v>
+        <v>133591</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>107</v>
@@ -2741,10 +2924,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>417</v>
+        <v>241</v>
       </c>
       <c r="D20" s="7">
-        <v>403001</v>
+        <v>235429</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>110</v>
@@ -2756,10 +2939,10 @@
         <v>112</v>
       </c>
       <c r="H20" s="7">
-        <v>517</v>
+        <v>289</v>
       </c>
       <c r="I20" s="7">
-        <v>528444</v>
+        <v>266497</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>113</v>
@@ -2771,10 +2954,10 @@
         <v>115</v>
       </c>
       <c r="M20" s="7">
-        <v>934</v>
+        <v>530</v>
       </c>
       <c r="N20" s="7">
-        <v>931445</v>
+        <v>501926</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>116</v>
@@ -2792,10 +2975,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>23</v>
@@ -2807,10 +2990,10 @@
         <v>23</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>23</v>
@@ -2822,10 +3005,10 @@
         <v>23</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -2839,55 +3022,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>192</v>
+        <v>44</v>
       </c>
       <c r="D22" s="7">
-        <v>185467</v>
+        <v>42311</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H22" s="7">
-        <v>224</v>
+        <v>62</v>
       </c>
       <c r="I22" s="7">
-        <v>229249</v>
+        <v>71961</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M22" s="7">
-        <v>416</v>
+        <v>106</v>
       </c>
       <c r="N22" s="7">
-        <v>414716</v>
+        <v>114272</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2896,49 +3079,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>3022</v>
+        <v>176</v>
       </c>
       <c r="D23" s="7">
-        <v>3091077</v>
+        <v>167572</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H23" s="7">
-        <v>3073</v>
+        <v>228</v>
       </c>
       <c r="I23" s="7">
-        <v>3149949</v>
+        <v>261947</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M23" s="7">
-        <v>6095</v>
+        <v>404</v>
       </c>
       <c r="N23" s="7">
-        <v>6241024</v>
+        <v>429519</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2947,63 +3130,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>192</v>
+      </c>
+      <c r="D25" s="7">
+        <v>185467</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H25" s="7">
+        <v>224</v>
+      </c>
+      <c r="I25" s="7">
+        <v>229249</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="M25" s="7">
+        <v>416</v>
+      </c>
+      <c r="N25" s="7">
+        <v>414716</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3022</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3091076</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3073</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3149948</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6095</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6241025</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3214</v>
       </c>
-      <c r="D24" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="7">
         <v>6511</v>
       </c>
-      <c r="N24" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>137</v>
+      <c r="N27" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3016,8 +3355,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8603C87D-AFF1-4AD7-9E6F-6A024089D210}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48EAD35D-58FD-4C97-B210-05E4BDE46F29}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3033,7 +3372,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3146,7 +3485,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3155,13 +3494,13 @@
         <v>2044</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -3170,13 +3509,13 @@
         <v>4820</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3194,7 +3533,7 @@
         <v>25</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3206,10 +3545,10 @@
         <v>428186</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -3221,10 +3560,10 @@
         <v>879556</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3295,13 +3634,13 @@
         <v>7770</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -3310,13 +3649,13 @@
         <v>8759</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -3325,13 +3664,13 @@
         <v>16529</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,13 +3685,13 @@
         <v>679317</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="H8" s="7">
         <v>563</v>
@@ -3361,13 +3700,13 @@
         <v>601496</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="M8" s="7">
         <v>1223</v>
@@ -3376,13 +3715,13 @@
         <v>1280813</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,13 +3789,13 @@
         <v>3904</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -3465,7 +3804,7 @@
         <v>13071</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>34</v>
@@ -3480,13 +3819,13 @@
         <v>16975</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,13 +3840,13 @@
         <v>677959</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>653</v>
@@ -3516,7 +3855,7 @@
         <v>696503</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>80</v>
@@ -3531,13 +3870,13 @@
         <v>1374462</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3605,13 +3944,13 @@
         <v>26724</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -3620,13 +3959,13 @@
         <v>21477</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="M13" s="7">
         <v>44</v>
@@ -3635,13 +3974,13 @@
         <v>48201</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3656,13 +3995,13 @@
         <v>587893</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="H14" s="7">
         <v>519</v>
@@ -3671,13 +4010,13 @@
         <v>592787</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="M14" s="7">
         <v>1042</v>
@@ -3686,13 +4025,13 @@
         <v>1180679</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3760,13 +4099,13 @@
         <v>50741</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -3775,13 +4114,13 @@
         <v>51170</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="M16" s="7">
         <v>96</v>
@@ -3790,13 +4129,13 @@
         <v>101910</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3811,13 +4150,13 @@
         <v>378688</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="H17" s="7">
         <v>358</v>
@@ -3826,13 +4165,13 @@
         <v>396630</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="M17" s="7">
         <v>703</v>
@@ -3841,13 +4180,13 @@
         <v>775319</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3909,49 +4248,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c r="D19" s="7">
-        <v>165211</v>
+        <v>94531</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="H19" s="7">
-        <v>200</v>
+        <v>88</v>
       </c>
       <c r="I19" s="7">
-        <v>210683</v>
+        <v>89037</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="M19" s="7">
-        <v>349</v>
+        <v>173</v>
       </c>
       <c r="N19" s="7">
-        <v>375894</v>
+        <v>183568</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,49 +4299,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>355</v>
+        <v>197</v>
       </c>
       <c r="D20" s="7">
-        <v>394426</v>
+        <v>215255</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="H20" s="7">
-        <v>494</v>
+        <v>256</v>
       </c>
       <c r="I20" s="7">
-        <v>532292</v>
+        <v>264959</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="M20" s="7">
-        <v>849</v>
+        <v>453</v>
       </c>
       <c r="N20" s="7">
-        <v>926718</v>
+        <v>480214</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,10 +4350,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>23</v>
@@ -4026,10 +4365,10 @@
         <v>23</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>23</v>
@@ -4041,10 +4380,10 @@
         <v>23</v>
       </c>
       <c r="M21" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -4058,55 +4397,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>236</v>
+        <v>64</v>
       </c>
       <c r="D22" s="7">
-        <v>257126</v>
+        <v>70680</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="H22" s="7">
-        <v>290</v>
+        <v>112</v>
       </c>
       <c r="I22" s="7">
-        <v>307203</v>
+        <v>121646</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="M22" s="7">
-        <v>526</v>
+        <v>176</v>
       </c>
       <c r="N22" s="7">
-        <v>564329</v>
+        <v>192326</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4115,49 +4454,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>2973</v>
+        <v>158</v>
       </c>
       <c r="D23" s="7">
-        <v>3169653</v>
+        <v>179171</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="H23" s="7">
-        <v>3006</v>
+        <v>238</v>
       </c>
       <c r="I23" s="7">
-        <v>3247895</v>
+        <v>267333</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="M23" s="7">
-        <v>5979</v>
+        <v>396</v>
       </c>
       <c r="N23" s="7">
-        <v>6417548</v>
+        <v>446504</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,63 +4505,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>236</v>
+      </c>
+      <c r="D25" s="7">
+        <v>257126</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H25" s="7">
+        <v>290</v>
+      </c>
+      <c r="I25" s="7">
+        <v>307203</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="M25" s="7">
+        <v>526</v>
+      </c>
+      <c r="N25" s="7">
+        <v>564329</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2973</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3169653</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3006</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3247895</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5979</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6417548</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3426779</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="7">
         <v>3296</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3555098</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="7">
         <v>6505</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6981877</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>137</v>
+      <c r="O27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4235,8 +4730,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E83B5E0-5FA3-46C8-B162-7A2C4289F8BC}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA0C5EA-0EBD-4CAB-93CF-E35C9ABD22FE}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4252,7 +4747,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4359,13 +4854,13 @@
         <v>932</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>252</v>
+        <v>289</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4380,7 +4875,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4389,13 +4884,13 @@
         <v>932</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,10 +4905,10 @@
         <v>418531</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -4428,7 +4923,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -4440,10 +4935,10 @@
         <v>814286</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -4520,7 +5015,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -4529,13 +5024,13 @@
         <v>4663</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -4547,10 +5042,10 @@
         <v>17</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4568,7 +5063,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -4580,13 +5075,13 @@
         <v>558881</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="M8" s="7">
         <v>1139</v>
@@ -4598,10 +5093,10 @@
         <v>25</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4669,13 +5164,13 @@
         <v>12858</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -4684,13 +5179,13 @@
         <v>7535</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -4699,13 +5194,13 @@
         <v>20394</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,10 +5215,10 @@
         <v>656239</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>41</v>
@@ -4735,10 +5230,10 @@
         <v>653851</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>37</v>
@@ -4750,13 +5245,13 @@
         <v>1310089</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4824,13 +5319,13 @@
         <v>35576</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -4839,13 +5334,13 @@
         <v>22758</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="M13" s="7">
         <v>53</v>
@@ -4854,13 +5349,13 @@
         <v>58334</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4875,13 +5370,13 @@
         <v>610472</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="H14" s="7">
         <v>581</v>
@@ -4890,13 +5385,13 @@
         <v>626319</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="M14" s="7">
         <v>1131</v>
@@ -4905,13 +5400,13 @@
         <v>1236791</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4979,13 +5474,13 @@
         <v>63481</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
@@ -4994,13 +5489,13 @@
         <v>62051</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="M16" s="7">
         <v>113</v>
@@ -5009,13 +5504,13 @@
         <v>125532</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5030,13 +5525,13 @@
         <v>414437</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="H17" s="7">
         <v>377</v>
@@ -5045,13 +5540,13 @@
         <v>434798</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="M17" s="7">
         <v>744</v>
@@ -5060,13 +5555,13 @@
         <v>849235</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5128,49 +5623,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>194</v>
+        <v>91</v>
       </c>
       <c r="D19" s="7">
-        <v>182537</v>
+        <v>94352</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="H19" s="7">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="I19" s="7">
-        <v>200172</v>
+        <v>86562</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="M19" s="7">
-        <v>361</v>
+        <v>172</v>
       </c>
       <c r="N19" s="7">
-        <v>382709</v>
+        <v>180914</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5179,49 +5674,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>433</v>
+        <v>234</v>
       </c>
       <c r="D20" s="7">
-        <v>408791</v>
+        <v>239978</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="H20" s="7">
-        <v>488</v>
+        <v>273</v>
       </c>
       <c r="I20" s="7">
-        <v>577759</v>
+        <v>291200</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="M20" s="7">
-        <v>921</v>
+        <v>507</v>
       </c>
       <c r="N20" s="7">
-        <v>986550</v>
+        <v>531178</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5230,10 +5725,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>23</v>
@@ -5245,10 +5740,10 @@
         <v>23</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>23</v>
@@ -5260,10 +5755,10 @@
         <v>23</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -5277,55 +5772,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>298</v>
+        <v>103</v>
       </c>
       <c r="D22" s="7">
-        <v>297716</v>
+        <v>88185</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="H22" s="7">
-        <v>257</v>
+        <v>86</v>
       </c>
       <c r="I22" s="7">
-        <v>297179</v>
+        <v>113610</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="M22" s="7">
-        <v>555</v>
+        <v>189</v>
       </c>
       <c r="N22" s="7">
-        <v>594895</v>
+        <v>201795</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5334,49 +5829,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>2933</v>
+        <v>199</v>
       </c>
       <c r="D23" s="7">
-        <v>3096634</v>
+        <v>168813</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="H23" s="7">
-        <v>3081</v>
+        <v>215</v>
       </c>
       <c r="I23" s="7">
-        <v>3247363</v>
+        <v>286559</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="M23" s="7">
-        <v>6014</v>
+        <v>414</v>
       </c>
       <c r="N23" s="7">
-        <v>6343997</v>
+        <v>455372</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5385,63 +5880,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>298</v>
+      </c>
+      <c r="D25" s="7">
+        <v>297716</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="H25" s="7">
+        <v>257</v>
+      </c>
+      <c r="I25" s="7">
+        <v>297179</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="M25" s="7">
+        <v>555</v>
+      </c>
+      <c r="N25" s="7">
+        <v>594895</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2933</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3096634</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3081</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3247363</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6014</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6343997</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>137</v>
+      <c r="O27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5454,8 +6105,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E758B54-4EFA-4394-8023-596832FFA9E0}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D0FEF23-46EB-453D-8E75-A46DBF8DF950}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5471,7 +6122,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>350</v>
+        <v>405</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5584,37 +6235,37 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>351</v>
+        <v>32</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>353</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5626,13 +6277,13 @@
         <v>171</v>
       </c>
       <c r="D5" s="7">
-        <v>374238</v>
+        <v>396116</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -5641,13 +6292,13 @@
         <v>206</v>
       </c>
       <c r="I5" s="7">
-        <v>353869</v>
+        <v>312114</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>354</v>
+        <v>40</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>355</v>
+        <v>407</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -5656,13 +6307,13 @@
         <v>377</v>
       </c>
       <c r="N5" s="7">
-        <v>728107</v>
+        <v>708229</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>356</v>
+        <v>185</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -5677,7 +6328,7 @@
         <v>171</v>
       </c>
       <c r="D6" s="7">
-        <v>374238</v>
+        <v>396116</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>23</v>
@@ -5692,7 +6343,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>23</v>
@@ -5707,7 +6358,7 @@
         <v>378</v>
       </c>
       <c r="N6" s="7">
-        <v>729195</v>
+        <v>709315</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>23</v>
@@ -5730,46 +6381,46 @@
         <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>5351</v>
+        <v>5771</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>357</v>
+        <v>408</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>358</v>
+        <v>296</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>359</v>
+        <v>409</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>889</v>
+        <v>803</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>6240</v>
+        <v>6574</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>362</v>
+        <v>412</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>413</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>363</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5781,28 +6432,28 @@
         <v>299</v>
       </c>
       <c r="D8" s="7">
-        <v>423045</v>
+        <v>417776</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>364</v>
+        <v>415</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>365</v>
+        <v>416</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>366</v>
+        <v>302</v>
       </c>
       <c r="H8" s="7">
         <v>459</v>
       </c>
       <c r="I8" s="7">
-        <v>497688</v>
+        <v>510701</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>367</v>
+        <v>417</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>368</v>
+        <v>418</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -5811,16 +6462,16 @@
         <v>758</v>
       </c>
       <c r="N8" s="7">
-        <v>920733</v>
+        <v>928477</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>369</v>
+        <v>419</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5832,7 +6483,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>23</v>
@@ -5847,7 +6498,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>23</v>
@@ -5862,7 +6513,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>23</v>
@@ -5885,46 +6536,46 @@
         <v>13</v>
       </c>
       <c r="D10" s="7">
-        <v>10331</v>
+        <v>9850</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>371</v>
+        <v>188</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>258</v>
+        <v>422</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>372</v>
+        <v>423</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
       </c>
       <c r="I10" s="7">
-        <v>7158</v>
+        <v>6682</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>373</v>
+        <v>424</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>283</v>
+        <v>425</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
       </c>
       <c r="N10" s="7">
-        <v>17489</v>
+        <v>16532</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>273</v>
+        <v>427</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5936,46 +6587,46 @@
         <v>533</v>
       </c>
       <c r="D11" s="7">
-        <v>546921</v>
+        <v>526488</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>375</v>
+        <v>194</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>376</v>
+        <v>428</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>263</v>
+        <v>429</v>
       </c>
       <c r="H11" s="7">
         <v>830</v>
       </c>
       <c r="I11" s="7">
-        <v>575600</v>
+        <v>535117</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>292</v>
+        <v>430</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>377</v>
+        <v>431</v>
       </c>
       <c r="M11" s="7">
         <v>1363</v>
       </c>
       <c r="N11" s="7">
-        <v>1122521</v>
+        <v>1061605</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>278</v>
+        <v>432</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>378</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5987,7 +6638,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>23</v>
@@ -6002,7 +6653,7 @@
         <v>845</v>
       </c>
       <c r="I12" s="7">
-        <v>582758</v>
+        <v>541799</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>23</v>
@@ -6017,7 +6668,7 @@
         <v>1391</v>
       </c>
       <c r="N12" s="7">
-        <v>1140010</v>
+        <v>1078137</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>23</v>
@@ -6040,46 +6691,46 @@
         <v>46</v>
       </c>
       <c r="D13" s="7">
-        <v>45382</v>
+        <v>44224</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>379</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>381</v>
+        <v>434</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
       </c>
       <c r="I13" s="7">
-        <v>23481</v>
+        <v>21819</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>382</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>283</v>
+        <v>435</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>383</v>
+        <v>69</v>
       </c>
       <c r="M13" s="7">
         <v>84</v>
       </c>
       <c r="N13" s="7">
-        <v>68864</v>
+        <v>66043</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>384</v>
+        <v>436</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>385</v>
+        <v>437</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>386</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6091,46 +6742,46 @@
         <v>619</v>
       </c>
       <c r="D14" s="7">
-        <v>678608</v>
+        <v>843562</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>387</v>
+        <v>149</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>388</v>
+        <v>439</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>389</v>
+        <v>420</v>
       </c>
       <c r="H14" s="7">
         <v>1102</v>
       </c>
       <c r="I14" s="7">
-        <v>723373</v>
+        <v>690679</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>390</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>391</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>292</v>
+        <v>440</v>
       </c>
       <c r="M14" s="7">
         <v>1721</v>
       </c>
       <c r="N14" s="7">
-        <v>1401980</v>
+        <v>1534242</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>394</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6142,7 +6793,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>23</v>
@@ -6157,7 +6808,7 @@
         <v>1140</v>
       </c>
       <c r="I15" s="7">
-        <v>746854</v>
+        <v>712498</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>23</v>
@@ -6172,7 +6823,7 @@
         <v>1805</v>
       </c>
       <c r="N15" s="7">
-        <v>1470844</v>
+        <v>1600285</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>23</v>
@@ -6195,46 +6846,46 @@
         <v>90</v>
       </c>
       <c r="D16" s="7">
-        <v>76153</v>
+        <v>72299</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>396</v>
+        <v>445</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>397</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>82</v>
       </c>
       <c r="I16" s="7">
-        <v>46251</v>
+        <v>42767</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>398</v>
+        <v>446</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>399</v>
+        <v>447</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="M16" s="7">
         <v>172</v>
       </c>
       <c r="N16" s="7">
-        <v>122404</v>
+        <v>115065</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>401</v>
+        <v>449</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>402</v>
+        <v>450</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>403</v>
+        <v>451</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6246,46 +6897,46 @@
         <v>572</v>
       </c>
       <c r="D17" s="7">
-        <v>522933</v>
+        <v>487938</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>404</v>
+        <v>452</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>405</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>406</v>
+        <v>453</v>
       </c>
       <c r="H17" s="7">
         <v>918</v>
       </c>
       <c r="I17" s="7">
-        <v>547325</v>
+        <v>502120</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>407</v>
+        <v>454</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>408</v>
+        <v>455</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>409</v>
+        <v>456</v>
       </c>
       <c r="M17" s="7">
         <v>1490</v>
       </c>
       <c r="N17" s="7">
-        <v>1070258</v>
+        <v>990059</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>410</v>
+        <v>457</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>412</v>
+        <v>459</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6297,7 +6948,7 @@
         <v>662</v>
       </c>
       <c r="D18" s="7">
-        <v>599086</v>
+        <v>560237</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>23</v>
@@ -6312,7 +6963,7 @@
         <v>1000</v>
       </c>
       <c r="I18" s="7">
-        <v>593576</v>
+        <v>544887</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>23</v>
@@ -6327,7 +6978,7 @@
         <v>1662</v>
       </c>
       <c r="N18" s="7">
-        <v>1192662</v>
+        <v>1105124</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>23</v>
@@ -6347,49 +6998,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>273</v>
+        <v>130</v>
       </c>
       <c r="D19" s="7">
-        <v>179838</v>
+        <v>83684</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>413</v>
+        <v>354</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>414</v>
+        <v>460</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>415</v>
+        <v>461</v>
       </c>
       <c r="H19" s="7">
-        <v>406</v>
+        <v>140</v>
       </c>
       <c r="I19" s="7">
-        <v>209592</v>
+        <v>67901</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>416</v>
+        <v>462</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>417</v>
+        <v>463</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>418</v>
+        <v>464</v>
       </c>
       <c r="M19" s="7">
-        <v>679</v>
+        <v>270</v>
       </c>
       <c r="N19" s="7">
-        <v>389430</v>
+        <v>151584</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>420</v>
+        <v>466</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>421</v>
+        <v>467</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6398,49 +7049,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>751</v>
+        <v>436</v>
       </c>
       <c r="D20" s="7">
-        <v>514805</v>
+        <v>281532</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>422</v>
+        <v>363</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>423</v>
+        <v>468</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>424</v>
+        <v>469</v>
       </c>
       <c r="H20" s="7">
-        <v>1299</v>
+        <v>687</v>
       </c>
       <c r="I20" s="7">
-        <v>815254</v>
+        <v>540467</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>425</v>
+        <v>470</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>426</v>
+        <v>471</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>427</v>
+        <v>472</v>
       </c>
       <c r="M20" s="7">
-        <v>2050</v>
+        <v>1123</v>
       </c>
       <c r="N20" s="7">
-        <v>1330059</v>
+        <v>822000</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>428</v>
+        <v>473</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>429</v>
+        <v>474</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>430</v>
+        <v>475</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6449,10 +7100,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1024</v>
+        <v>566</v>
       </c>
       <c r="D21" s="7">
-        <v>694643</v>
+        <v>365216</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>23</v>
@@ -6464,10 +7115,10 @@
         <v>23</v>
       </c>
       <c r="H21" s="7">
-        <v>1705</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1024846</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>23</v>
@@ -6479,10 +7130,10 @@
         <v>23</v>
       </c>
       <c r="M21" s="7">
-        <v>2729</v>
+        <v>1393</v>
       </c>
       <c r="N21" s="7">
-        <v>1719489</v>
+        <v>973584</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -6496,55 +7147,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>425</v>
+        <v>143</v>
       </c>
       <c r="D22" s="7">
-        <v>317056</v>
+        <v>84042</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>431</v>
+        <v>476</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>432</v>
+        <v>477</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
       <c r="H22" s="7">
-        <v>543</v>
+        <v>266</v>
       </c>
       <c r="I22" s="7">
-        <v>288458</v>
+        <v>122762</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>434</v>
+        <v>479</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>435</v>
+        <v>480</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>436</v>
+        <v>481</v>
       </c>
       <c r="M22" s="7">
-        <v>968</v>
+        <v>409</v>
       </c>
       <c r="N22" s="7">
-        <v>605514</v>
+        <v>206804</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>437</v>
+        <v>482</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>438</v>
+        <v>483</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>439</v>
+        <v>484</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6553,49 +7204,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>2945</v>
+        <v>315</v>
       </c>
       <c r="D23" s="7">
-        <v>3060550</v>
+        <v>198717</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>440</v>
+        <v>485</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>441</v>
+        <v>486</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>442</v>
+        <v>487</v>
       </c>
       <c r="H23" s="7">
-        <v>4814</v>
+        <v>612</v>
       </c>
       <c r="I23" s="7">
-        <v>3513110</v>
+        <v>301477</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>443</v>
+        <v>488</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>444</v>
+        <v>489</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>445</v>
+        <v>490</v>
       </c>
       <c r="M23" s="7">
-        <v>7759</v>
+        <v>927</v>
       </c>
       <c r="N23" s="7">
-        <v>6573658</v>
+        <v>500194</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>446</v>
+        <v>491</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>447</v>
+        <v>492</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>448</v>
+        <v>493</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6604,63 +7255,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="7">
+        <v>878</v>
+      </c>
+      <c r="I24" s="7">
+        <v>424239</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1336</v>
+      </c>
+      <c r="N24" s="7">
+        <v>706998</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>425</v>
+      </c>
+      <c r="D25" s="7">
+        <v>299869</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="H25" s="7">
+        <v>543</v>
+      </c>
+      <c r="I25" s="7">
+        <v>263819</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="M25" s="7">
+        <v>968</v>
+      </c>
+      <c r="N25" s="7">
+        <v>563688</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2945</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3152131</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4814</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3392676</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="M26" s="7">
+        <v>7759</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6544807</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3370</v>
       </c>
-      <c r="D24" s="7">
-        <v>3377606</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3452000</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="7">
         <v>5357</v>
       </c>
-      <c r="I24" s="7">
-        <v>3801568</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3656495</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="7">
         <v>8727</v>
       </c>
-      <c r="N24" s="7">
-        <v>7179172</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>137</v>
+      <c r="N27" s="7">
+        <v>7108495</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
